--- a/biology/Zoologie/Fritillaire_panachée/Fritillaire_panachée.xlsx
+++ b/biology/Zoologie/Fritillaire_panachée/Fritillaire_panachée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptoieta claudia
 La Fritillaire panachée (Euptoieta claudia) est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Euptoieta.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euptoieta claudia a été nommé par Pieter Cramer en 1775.
-Synonyme :Papilio claudia Cramer, [1775] ; Euptoieta dodgei Gunder, 1927 ; Euptoieta fumosa Field, 1936 ; Euptoieta albaclaudia Field, 1936 [1].
-Noms vernaculaires
-La fritillaire panachée se nomme en anglais Variegated Fritillary[1].
-Sous-espèce
-Euptoieta claudia claudia
-Euptoieta claudia daunius (Herbst, 1798)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptoieta claudia a été nommé par Pieter Cramer en 1775.
+Synonyme :Papilio claudia Cramer,  ; Euptoieta dodgei Gunder, 1927 ; Euptoieta fumosa Field, 1936 ; Euptoieta albaclaudia Field, 1936 .
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon à aile antérieure pointue et bord externe concave, au dessus orange plus foncé dans la partie basale, aux veines marron avec en bordure une double ligne marron et une ligne de points marron.
-Le revers est orange plus clair avec de larges taches nacrées aux postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fritillaire panachée se nomme en anglais Variegated Fritillary.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,15 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chenille</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La chenille est rouge orangé avec des lignes blanches et six rangées d'épines noires[2].
-			chenille
-			chrysalide
-</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euptoieta claudia claudia
+Euptoieta claudia daunius (Herbst, 1798).</t>
         </is>
       </c>
     </row>
@@ -595,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +629,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La fritillaire panachée vole en deux à trois générations dans le nord de son aire de répartition, quatre dans le sud[3].
-Elle hiverne à l'état adulte (imago). C'est un migrateur reconnu au nord de son aire de répartition, au Canada.
-Plantes hôtes
-Ses plantes hôtes sont nombreuses, dont des Viola et des passiflores[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon à aile antérieure pointue et bord externe concave, au dessus orange plus foncé dans la partie basale, aux veines marron avec en bordure une double ligne marron et une ligne de points marron.
+Le revers est orange plus clair avec de larges taches nacrées aux postérieures.
 </t>
         </is>
       </c>
@@ -630,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,17 +663,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fritillaire panachée est présente dans toute l'Amérique du Nord, du sud du Canada au Mexique, dans l'ensemble des États-Unis sauf l'Alaska et l'État de Washington, à Cuba et à la Jamaïque pour la forme Euptoieta claudia claudia, ainsi que dans les montagnes d'Argentine[1],[4].
-Il est migrateur au nord de son aire de répartition, jusque dans le nord du Canada[2].
-Biotope
-Il réside en divers habitats ouverts.
-Protection
-Pas de statut de protection particulier.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est rouge orangé avec des lignes blanches et six rangées d'épines noires.
+			chenille
+			chrysalide
 </t>
         </is>
       </c>
@@ -666,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fritillaire_panach%C3%A9e</t>
+          <t>Fritillaire_panachée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,10 +698,195 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fritillaire panachée vole en deux à trois générations dans le nord de son aire de répartition, quatre dans le sud.
+Elle hiverne à l'état adulte (imago). C'est un migrateur reconnu au nord de son aire de répartition, au Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fritillaire_panachée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire_panach%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont nombreuses, dont des Viola et des passiflores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fritillaire_panachée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire_panach%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fritillaire panachée est présente dans toute l'Amérique du Nord, du sud du Canada au Mexique, dans l'ensemble des États-Unis sauf l'Alaska et l'État de Washington, à Cuba et à la Jamaïque pour la forme Euptoieta claudia claudia, ainsi que dans les montagnes d'Argentine,.
+Il est migrateur au nord de son aire de répartition, jusque dans le nord du Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fritillaire_panachée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire_panach%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en divers habitats ouverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fritillaire_panachée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire_panach%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fritillaire_panachée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fritillaire_panach%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
